--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1430.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1430.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.748804221588031</v>
+        <v>0.3547408878803253</v>
       </c>
       <c r="B1">
-        <v>1.968318774284713</v>
+        <v>3.095179080963135</v>
       </c>
       <c r="C1">
-        <v>2.029614488935645</v>
+        <v>6.00098991394043</v>
       </c>
       <c r="D1">
-        <v>2.656603696922901</v>
+        <v>1.686342716217041</v>
       </c>
       <c r="E1">
-        <v>3.014778313346955</v>
+        <v>1.00642204284668</v>
       </c>
     </row>
   </sheetData>
